--- a/biology/Botanique/Psoralée_bitumineuse/Psoralée_bitumineuse.xlsx
+++ b/biology/Botanique/Psoralée_bitumineuse/Psoralée_bitumineuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Psoral%C3%A9e_bitumineuse</t>
+          <t>Psoralée_bitumineuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bituminaria bituminosa
 La Psoralée bitumineuse (Bituminaria bituminosa (L.) Stirton.) est une plante vivace dicotylédone, de la famille des Fabacées (ou légumineuses). Cette espèce pousse en bordure des champs ou des chemins, notamment en région méditerranéenne.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Psoral%C3%A9e_bitumineuse</t>
+          <t>Psoralée_bitumineuse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Psoralea bituminosa L.
 Aspalthium bituminosum (L.) Kuntze</t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Psoral%C3%A9e_bitumineuse</t>
+          <t>Psoralée_bitumineuse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Trèfle bitumineux, Herbe au bitume.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Psoral%C3%A9e_bitumineuse</t>
+          <t>Psoralée_bitumineuse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,14 +591,51 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Elle forme des touffes ayant en moyenne 50 cm de haut (parfois plus), avec des tiges longues, fines et assez peu ramifiées.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle forme des touffes ayant en moyenne 50 cm de haut (parfois plus), avec des tiges longues, fines et assez peu ramifiées.
 Les feuilles sont trifoliées, chacune comportant trois folioles minces et lancéolées. Les fleurs sont portées par un pédoncule lui aussi assez long. Comme celles du trèfle, elles sont réunies en un faux capitule serré et arrondi comportant une quinzaine de fleurs entourées de bractées assez longues. La carène est blanche; les ailes, plus longues que la carène, ont une belle couleur lilas.
 Les fruits sont des gousses d'environ 2 cm.
-Caractéristiques
-Organes reproducteurs
-La floraison a lieu de mai à octobre[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Psoralée_bitumineuse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psoral%C3%A9e_bitumineuse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Organes reproducteurs
+La floraison a lieu de mai à octobre.
 Couleur dominante des fleurs : bleu
 Inflorescence : racème capituliforme
 Sexualité : hermaphrodite
